--- a/data/trans_orig/Q61A-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q61A-Clase-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de meses que lleva en paro</t>
+          <t>Número medio de meses que lleva en paro</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,99; 6,43</t>
+          <t>2,94; 6,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,97; 19,09</t>
+          <t>12,13; 19,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,21; 22,53</t>
+          <t>11,9; 22,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,87; 29,5</t>
+          <t>10,54; 31,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,81; 66,05</t>
+          <t>4,54; 53,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,68; 16,15</t>
+          <t>9,48; 15,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,86; 32,89</t>
+          <t>17,71; 32,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,52; 31,99</t>
+          <t>13,77; 33,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,3; 37,78</t>
+          <t>4,33; 33,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,71; 16,31</t>
+          <t>11,54; 16,25</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,44; 25,98</t>
+          <t>15,99; 25,37</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,58; 27,02</t>
+          <t>13,88; 27,56</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,14; 60,87</t>
+          <t>4,27; 58,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,74; 19,12</t>
+          <t>9,6; 19,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,47; 27,54</t>
+          <t>17,27; 27,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,11; 32,59</t>
+          <t>13,3; 31,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,94; 15,14</t>
+          <t>3,92; 15,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,49; 26,63</t>
+          <t>16,35; 25,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,39; 30,33</t>
+          <t>20,91; 30,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,76; 35,76</t>
+          <t>19,21; 37,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,77; 17,83</t>
+          <t>5,08; 20,69</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,51; 21,29</t>
+          <t>14,58; 21,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21,07; 27,92</t>
+          <t>21,13; 27,97</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,44; 31,41</t>
+          <t>19,05; 31,95</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,91; 9,24</t>
+          <t>2,75; 8,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,51; 28,15</t>
+          <t>17,22; 28,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,92; 29,11</t>
+          <t>19,69; 29,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>27,36; 54,47</t>
+          <t>29,22; 57,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 8,97</t>
+          <t>2,9; 8,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,75; 32,77</t>
+          <t>20,53; 33,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,12; 62,48</t>
+          <t>28,17; 62,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,86; 66,64</t>
+          <t>29,42; 63,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,47; 7,82</t>
+          <t>3,54; 7,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,79; 27,98</t>
+          <t>18,67; 27,87</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22,74; 32,32</t>
+          <t>22,89; 32,49</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>31,09; 53,85</t>
+          <t>31,02; 54,07</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,66; 7,51</t>
+          <t>4,66; 7,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,41; 14,22</t>
+          <t>11,46; 14,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,16; 23,67</t>
+          <t>18,12; 23,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,35; 23,32</t>
+          <t>14,14; 23,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,51; 10,91</t>
+          <t>5,55; 11,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,72; 26,31</t>
+          <t>16,71; 26,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,66; 26,71</t>
+          <t>18,91; 26,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,57; 32,01</t>
+          <t>18,5; 32,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,38; 8,28</t>
+          <t>5,39; 8,28</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,14; 18,47</t>
+          <t>14,06; 18,15</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,13; 23,56</t>
+          <t>19,18; 23,53</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,79; 26,48</t>
+          <t>17,51; 25,88</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,29; 7,57</t>
+          <t>4,4; 7,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,11; 16,29</t>
+          <t>12,03; 16,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,24; 19,27</t>
+          <t>13,34; 19,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,23; 22,72</t>
+          <t>10,81; 21,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,15; 9,22</t>
+          <t>6,2; 9,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,64; 17,89</t>
+          <t>12,69; 17,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,57; 24,41</t>
+          <t>16,89; 24,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,91; 28,05</t>
+          <t>17,1; 28,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,62; 7,86</t>
+          <t>5,69; 7,82</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,79; 16,06</t>
+          <t>12,81; 16,19</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,07; 21,1</t>
+          <t>16,01; 21,1</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,73; 23,58</t>
+          <t>15,69; 23,37</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,74; 11,01</t>
+          <t>5,74; 10,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,47; 11,42</t>
+          <t>6,19; 11,41</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,02; 8,57</t>
+          <t>5,02; 8,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,76; 16,62</t>
+          <t>13,74; 16,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18,09; 21,41</t>
+          <t>18,12; 21,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,01; 23,5</t>
+          <t>16,83; 23,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,23; 11,24</t>
+          <t>6,37; 11,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,42; 20,71</t>
+          <t>16,38; 20,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,77; 25,34</t>
+          <t>20,54; 25,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>20,48; 27,38</t>
+          <t>20,39; 27,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,91; 8,75</t>
+          <t>5,95; 8,68</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>15,23; 17,64</t>
+          <t>15,28; 17,63</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>19,72; 22,55</t>
+          <t>19,8; 22,59</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>19,57; 24,25</t>
+          <t>19,51; 24,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q61A-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q61A-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
